--- a/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/ctz_outputs.xlsx
+++ b/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/ctz_outputs.xlsx
@@ -490,19 +490,19 @@
         <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>-0</v>
@@ -528,37 +528,37 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>-57.14592331224047</v>
+        <v>-16.73227615237478</v>
       </c>
       <c r="D3" t="n">
-        <v>-60.30840796207329</v>
+        <v>-13.98918743160921</v>
       </c>
       <c r="E3" t="n">
-        <v>-59.29590927146828</v>
+        <v>-17.06437991375711</v>
       </c>
       <c r="F3" t="n">
-        <v>-59.29590927183759</v>
+        <v>-16.52846343769741</v>
       </c>
       <c r="G3" t="n">
-        <v>-58.94213565002431</v>
+        <v>-16.52846343769744</v>
       </c>
       <c r="H3" t="n">
-        <v>-58.71909295058271</v>
+        <v>-18.38212197426836</v>
       </c>
       <c r="I3" t="n">
-        <v>-58.71909295058271</v>
+        <v>-20.7005085077636</v>
       </c>
       <c r="J3" t="n">
-        <v>-58.71909295058272</v>
+        <v>-26.1240188919389</v>
       </c>
       <c r="K3" t="n">
-        <v>-58.71909295058265</v>
+        <v>-25.66156981076742</v>
       </c>
       <c r="L3" t="n">
-        <v>-58.71909295058268</v>
+        <v>-28.94566124210795</v>
       </c>
       <c r="M3" t="n">
-        <v>-58.71909295058265</v>
+        <v>-17.78881366853921</v>
       </c>
     </row>
     <row r="4">
@@ -569,37 +569,37 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>0.7051169339731302</v>
+        <v>2.829801029594151</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7510006891373848</v>
+        <v>2.517165721590601</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.034190854123153e-08</v>
+        <v>2.446301780997715</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.997457843572192e-08</v>
+        <v>3.028394613368334</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02407404722316642</v>
+        <v>2.22643354814096</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04326925073954158</v>
+        <v>3.163742803840478</v>
       </c>
       <c r="I4" t="n">
-        <v>1.978824570869619e-08</v>
+        <v>3.778970824266395</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.065198145828617e-08</v>
+        <v>3.782298676472692</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.368151624272286e-08</v>
+        <v>4.516110638857668</v>
       </c>
       <c r="L4" t="n">
-        <v>2.305293378412898e-08</v>
+        <v>4.196850757327894</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.5776871541634989</v>
+        <v>3.788842540059903</v>
       </c>
     </row>
   </sheetData>
